--- a/vedois/alunos (importar)/SIN_3.xlsx
+++ b/vedois/alunos (importar)/SIN_3.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>SIN 2022 3</t>
+          <t>SIN 3</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -451,7 +451,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Segunda T 13:30 - 14:25</t>
+          <t>Terça N 21:00 - 21:50</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -463,7 +463,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Segunda T 14:25 - 15:20</t>
+          <t>Terça N 21:50 - 22:40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Segunda T 15:45 - 16:40</t>
+          <t>Quarta N 19:00 - 19:50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -487,7 +487,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Segunda T 16:40 - 17:35</t>
+          <t>Quarta N 19:50 - 20:40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -523,7 +523,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Segunda N 21:00 - 21:50</t>
+          <t>Terça N 19:00 - 19:50</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -535,7 +535,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Segunda N 21:50 - 22:40</t>
+          <t>Terça N 19:50 - 20:40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -547,7 +547,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Segunda M 07:00 - 07:55</t>
+          <t>Segunda N 21:00 - 21:50</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -559,7 +559,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Segunda M 07:55 - 08:50</t>
+          <t>Segunda N 21:50 - 22:40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Segunda M 08:50 - 09:45</t>
+          <t>Quarta N 21:00 - 21:50</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Segunda M 10:10 - 11:00</t>
+          <t>Quarta N 21:50 - 22:40</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -595,7 +595,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Terça N 19:00 - 19:50</t>
+          <t>Quinta N 19:00 - 19:50</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -607,7 +607,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Terça N 19:50 - 20:40</t>
+          <t>Quinta N 19:50 - 20:40</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -619,7 +619,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Terça N 21:00 - 21:50</t>
+          <t>Quinta N 21:00 - 21:50</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -631,12 +631,108 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Terça N 21:50 - 22:40</t>
+          <t>Quinta N 21:50 - 22:40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>SRSC03 Organização e Arquitetura de Computadores 4 Prof 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sexta N 19:00 - 19:50</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MAT017 Fundamentos de Lógica e Matemática Discreta 4 Prof 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sexta N 19:50 - 20:40</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MAT017 Fundamentos de Lógica e Matemática Discreta 4 Prof 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sexta N 21:00 - 21:50</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MAT017 Fundamentos de Lógica e Matemática Discreta 4 Prof 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sexta N 21:50 - 22:40</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MAT017 Fundamentos de Lógica e Matemática Discreta 4 Prof 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Quarta N 22:40 - 23:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>COM220 Computação Orientada a Objetos I 4 Prof 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Terça N 22:40 - 23:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>COM220 Computação Orientada a Objetos I 4 Prof 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Quinta N 22:40 - 23:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>COM220 Computação Orientada a Objetos I 4 Prof 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Segunda N 22:40 - 23:30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>COM220 Computação Orientada a Objetos I 4 Prof 9</t>
         </is>
       </c>
     </row>
